--- a/data/trans_orig/P6904-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0854B3-5006-4412-ACA7-319DAD654492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80DE7082-6CDB-4791-B8DF-6C283C37566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86D2A77C-0789-4BF8-9E4B-A235370F4262}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1570FEE4-C325-4D83-85F6-AB62EFE33ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>72,61%</t>
   </si>
   <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>27,39%</t>
   </si>
   <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,31 @@
     <t>43,76%</t>
   </si>
   <si>
-    <t>55,48%</t>
+    <t>55,92%</t>
   </si>
   <si>
     <t>58,56%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>52,47%</t>
   </si>
   <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>44,52%</t>
+    <t>44,08%</t>
   </si>
   <si>
     <t>56,24%</t>
@@ -176,19 +176,19 @@
     <t>41,44%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
   </si>
   <si>
     <t>47,53%</t>
   </si>
   <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>30,49%</t>
   </si>
   <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>63,45%</t>
   </si>
   <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
   </si>
   <si>
     <t>51,75%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>52,08%</t>
   </si>
   <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>48,25%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
   </si>
   <si>
     <t>47,92%</t>
   </si>
   <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,211 +311,211 @@
     <t>58,99%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>41,01%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
   </si>
   <si>
     <t>43,69%</t>
   </si>
   <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
   </si>
   <si>
     <t>56,49%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>57,26%</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
   </si>
   <si>
     <t>43,51%</t>
   </si>
   <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
   </si>
   <si>
     <t>36,02%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
   </si>
   <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>63,98%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>54,69%</t>
   </si>
   <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>53,49%</t>
   </si>
   <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>48,34%</t>
   </si>
   <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>46,51%</t>
   </si>
   <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
@@ -737,199 +737,211 @@
     <t>76,04%</t>
   </si>
   <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>75,4%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>24,6%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>62,42%</t>
   </si>
   <si>
-    <t>55,6%</t>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
   </si>
   <si>
     <t>64,18%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>37,58%</t>
   </si>
   <si>
-    <t>44,4%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
   </si>
   <si>
     <t>35,82%</t>
   </si>
   <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>51,64%</t>
   </si>
   <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
   </si>
   <si>
     <t>48,36%</t>
   </si>
   <si>
-    <t>39,58%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>62,15%</t>
   </si>
   <si>
-    <t>65,72%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>37,85%</t>
   </si>
   <si>
-    <t>34,28%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3449544-E1C2-4F5D-84B2-932F524E3516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65926AD-47B8-4602-9C8C-F639159510D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A9CE8-F257-4912-A44E-306ADC5684E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACBB13-D415-4389-AE9A-A9935B4FFCFB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464EBED8-49A1-46B5-9E79-DB31626AFE6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3285202B-F669-4997-99ED-68C53D6BAA6B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3594,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC637B1-B6F4-41F1-8561-4B659962AE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C480C10-90C9-43C6-93BE-6C63A3BEEC98}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3891,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>201</v>
@@ -3888,13 +3900,13 @@
         <v>154521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>353</v>
@@ -3903,13 +3915,13 @@
         <v>310171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3936,13 @@
         <v>93700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>106</v>
@@ -3939,13 +3951,13 @@
         <v>79440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
@@ -3954,13 +3966,13 @@
         <v>173140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4040,13 @@
         <v>37608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -4043,13 +4055,13 @@
         <v>50135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4058,13 +4070,13 @@
         <v>87743</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>34209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -4094,13 +4106,13 @@
         <v>47961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -4109,13 +4121,13 @@
         <v>82170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4195,13 @@
         <v>216434</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>295</v>
@@ -4198,13 +4210,13 @@
         <v>226516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>505</v>
@@ -4213,13 +4225,13 @@
         <v>442950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4246,13 @@
         <v>135212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -4249,13 +4261,13 @@
         <v>134536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>305</v>
@@ -4264,13 +4276,13 @@
         <v>269748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6904-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80DE7082-6CDB-4791-B8DF-6C283C37566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F3A288-7209-4B20-8FBC-910AFF0ADB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1570FEE4-C325-4D83-85F6-AB62EFE33ECB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9A24225-60C4-4EE4-B58C-C88DDA9A95F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>72,61%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>27,39%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
   </si>
   <si>
     <t>43,84%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>31,54%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,732 +140,711 @@
     <t>49,96%</t>
   </si>
   <si>
-    <t>43,76%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>43,56%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
     <t>34,54%</t>
   </si>
   <si>
@@ -885,9 +864,6 @@
   </si>
   <si>
     <t>40,13%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
   </si>
   <si>
     <t>61,55%</t>
@@ -1353,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65926AD-47B8-4602-9C8C-F639159510D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D1F16D-CA04-4B42-AE79-4A376B3DDECC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEACBB13-D415-4389-AE9A-A9935B4FFCFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E66C1F-9C2F-4EC7-98B7-183333CD7BA7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2401,10 +2377,10 @@
         <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -2413,13 +2389,13 @@
         <v>201130</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2410,13 @@
         <v>96038</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -2449,13 +2425,13 @@
         <v>54066</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>142</v>
@@ -2464,13 +2440,13 @@
         <v>150104</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2514,13 @@
         <v>18779</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2553,13 +2529,13 @@
         <v>14102</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -2568,13 +2544,13 @@
         <v>32881</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2565,13 @@
         <v>27310</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -2604,13 +2580,13 @@
         <v>31094</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -2619,13 +2595,13 @@
         <v>58404</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2669,13 @@
         <v>177483</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -2708,13 +2684,13 @@
         <v>110383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -2723,13 +2699,13 @@
         <v>287866</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2720,13 @@
         <v>147013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -2759,13 +2735,13 @@
         <v>103278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>239</v>
@@ -2774,13 +2750,13 @@
         <v>250291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3285202B-F669-4997-99ED-68C53D6BAA6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F688D1-B49C-485C-B61D-2D6C1C79EA9A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2955,13 @@
         <v>30813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2994,13 +2970,13 @@
         <v>11155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -3009,13 +2985,13 @@
         <v>41968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3006,13 @@
         <v>24768</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3045,13 +3021,13 @@
         <v>6869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -3060,13 +3036,13 @@
         <v>31637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3110,13 @@
         <v>145407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3149,13 +3125,13 @@
         <v>92551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -3164,13 +3140,13 @@
         <v>237958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3161,13 @@
         <v>83975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3200,13 +3176,13 @@
         <v>32014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -3215,13 +3191,13 @@
         <v>115989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3265,13 @@
         <v>30710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3304,13 +3280,13 @@
         <v>41655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3319,13 +3295,13 @@
         <v>72365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3316,13 @@
         <v>32818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -3355,13 +3331,13 @@
         <v>32053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -3370,13 +3346,13 @@
         <v>64871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3420,13 @@
         <v>206930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -3459,13 +3435,13 @@
         <v>145362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
@@ -3474,13 +3450,13 @@
         <v>352291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3471,13 @@
         <v>141561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -3510,13 +3486,13 @@
         <v>70936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>198</v>
@@ -3525,13 +3501,13 @@
         <v>212497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C480C10-90C9-43C6-93BE-6C63A3BEEC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BC07C4-EE30-42D2-A6DB-2F7A9E1D3E50}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3706,13 @@
         <v>23177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -3745,13 +3721,13 @@
         <v>21860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3760,13 +3736,13 @@
         <v>45037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3757,13 @@
         <v>7303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3796,13 +3772,13 @@
         <v>7134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3811,13 +3787,13 @@
         <v>14437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3861,13 @@
         <v>155650</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>201</v>
@@ -3900,13 +3876,13 @@
         <v>154521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>353</v>
@@ -3915,13 +3891,13 @@
         <v>310171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3912,13 @@
         <v>93700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>106</v>
@@ -3951,13 +3927,13 @@
         <v>79440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
@@ -3966,13 +3942,13 @@
         <v>173140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4016,13 @@
         <v>37608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -4055,13 +4031,13 @@
         <v>50135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4070,13 +4046,13 @@
         <v>87743</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4067,13 @@
         <v>34209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -4106,13 +4082,13 @@
         <v>47961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -4121,13 +4097,13 @@
         <v>82170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4171,13 @@
         <v>216434</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>295</v>
@@ -4210,13 +4186,13 @@
         <v>226516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>505</v>
@@ -4225,13 +4201,13 @@
         <v>442950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4222,13 @@
         <v>135212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -4261,13 +4237,13 @@
         <v>134536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>305</v>
@@ -4276,13 +4252,13 @@
         <v>269748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6904-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F3A288-7209-4B20-8FBC-910AFF0ADB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{447CF9EF-15AA-4526-95F7-8A0A48426DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9A24225-60C4-4EE4-B58C-C88DDA9A95F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6D3240-BB0F-4117-8993-AF0DA5FFFE34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,853 +71,865 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>72,61%</t>
   </si>
   <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>68,46%</t>
   </si>
   <si>
-    <t>59,83%</t>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>62,42%</t>
   </si>
   <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
+    <t>55,6%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>64,18%</t>
   </si>
   <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>37,58%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
+    <t>44,4%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>35,82%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
   </si>
   <si>
     <t>51,11%</t>
   </si>
   <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>51,64%</t>
   </si>
   <si>
-    <t>59,87%</t>
+    <t>60,42%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
   </si>
   <si>
     <t>48,89%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
   </si>
   <si>
     <t>48,36%</t>
   </si>
   <si>
-    <t>40,13%</t>
+    <t>39,58%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>62,15%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
+    <t>65,72%</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
   </si>
   <si>
     <t>37,85%</t>
   </si>
   <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>34,28%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D1F16D-CA04-4B42-AE79-4A376B3DDECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA6DDC4-E885-4B36-B05B-928856123432}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2080,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E66C1F-9C2F-4EC7-98B7-183333CD7BA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E7574-46B5-4B0C-B250-EBE465B4B02F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2377,10 +2389,10 @@
         <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -2389,13 +2401,13 @@
         <v>201130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2422,13 @@
         <v>96038</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -2425,13 +2437,13 @@
         <v>54066</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>142</v>
@@ -2440,13 +2452,13 @@
         <v>150104</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2526,13 @@
         <v>18779</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -2529,13 +2541,13 @@
         <v>14102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -2544,13 +2556,13 @@
         <v>32881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2577,13 @@
         <v>27310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -2580,13 +2592,13 @@
         <v>31094</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -2595,13 +2607,13 @@
         <v>58404</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2681,13 @@
         <v>177483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -2684,13 +2696,13 @@
         <v>110383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -2699,13 +2711,13 @@
         <v>287866</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2732,13 @@
         <v>147013</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -2735,13 +2747,13 @@
         <v>103278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>239</v>
@@ -2750,13 +2762,13 @@
         <v>250291</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F688D1-B49C-485C-B61D-2D6C1C79EA9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7548A-C837-4F78-929B-89DB4B0E754D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2967,13 @@
         <v>30813</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2970,13 +2982,13 @@
         <v>11155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -2985,13 +2997,13 @@
         <v>41968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3018,13 @@
         <v>24768</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3021,13 +3033,13 @@
         <v>6869</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -3036,13 +3048,13 @@
         <v>31637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3122,13 @@
         <v>145407</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3125,13 +3137,13 @@
         <v>92551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>226</v>
@@ -3140,13 +3152,13 @@
         <v>237958</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3173,13 @@
         <v>83975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>32</v>
@@ -3176,13 +3188,13 @@
         <v>32014</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>110</v>
@@ -3191,13 +3203,13 @@
         <v>115989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3277,13 @@
         <v>30710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -3280,13 +3292,13 @@
         <v>41655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -3295,13 +3307,13 @@
         <v>72365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3328,13 @@
         <v>32818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -3331,13 +3343,13 @@
         <v>32053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>59</v>
@@ -3346,13 +3358,13 @@
         <v>64871</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3432,13 @@
         <v>206930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -3435,13 +3447,13 @@
         <v>145362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>330</v>
@@ -3450,13 +3462,13 @@
         <v>352291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3483,13 @@
         <v>141561</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>69</v>
@@ -3486,13 +3498,13 @@
         <v>70936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>198</v>
@@ -3501,13 +3513,13 @@
         <v>212497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BC07C4-EE30-42D2-A6DB-2F7A9E1D3E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD7304-CF05-4483-8249-2DBD0FA5950A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3718,13 @@
         <v>23177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -3721,13 +3733,13 @@
         <v>21860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>53</v>
@@ -3736,13 +3748,13 @@
         <v>45037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3769,13 @@
         <v>7303</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3772,13 +3784,13 @@
         <v>7134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -3787,13 +3799,13 @@
         <v>14437</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3873,13 @@
         <v>155650</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>201</v>
@@ -3876,13 +3888,13 @@
         <v>154521</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>353</v>
@@ -3891,13 +3903,13 @@
         <v>310171</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3924,13 @@
         <v>93700</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>106</v>
@@ -3927,13 +3939,13 @@
         <v>79440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
@@ -3942,13 +3954,13 @@
         <v>173140</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4028,13 @@
         <v>37608</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -4031,13 +4043,13 @@
         <v>50135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4046,13 +4058,13 @@
         <v>87743</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4079,13 @@
         <v>34209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -4082,13 +4094,13 @@
         <v>47961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
@@ -4097,13 +4109,13 @@
         <v>82170</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4183,13 @@
         <v>216434</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>295</v>
@@ -4186,13 +4198,13 @@
         <v>226516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>505</v>
@@ -4201,13 +4213,13 @@
         <v>442950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4234,13 @@
         <v>135212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -4237,13 +4249,13 @@
         <v>134536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>305</v>
@@ -4252,13 +4264,13 @@
         <v>269748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6904-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6904-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{447CF9EF-15AA-4526-95F7-8A0A48426DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE8ECEDD-C06E-47C6-9F9D-43152C416628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6D3240-BB0F-4117-8993-AF0DA5FFFE34}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{650A9B0A-659B-45D8-A309-FF37D4E4CF39}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -734,202 +734,214 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores musculares en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA6DDC4-E885-4B36-B05B-928856123432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E088EE5C-6C49-4163-A0B1-E8B115EC5BB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E7574-46B5-4B0C-B250-EBE465B4B02F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F331781-5A31-41BF-ACA6-796CDC92FAF9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC7548A-C837-4F78-929B-89DB4B0E754D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43038EBD-8AD5-4428-A803-DEA9DBFDC696}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3594,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD7304-CF05-4483-8249-2DBD0FA5950A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822BF31E-6564-4F7F-8B83-AB82E276E1D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3727,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>23177</v>
+        <v>22376</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3730,7 +3742,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>21860</v>
+        <v>18724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3745,7 +3757,7 @@
         <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>45037</v>
+        <v>41099</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3766,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>7303</v>
+        <v>6838</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3781,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>7134</v>
+        <v>6262</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3796,7 +3808,7 @@
         <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>14437</v>
+        <v>13101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3817,7 +3829,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3844,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3859,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3882,7 @@
         <v>152</v>
       </c>
       <c r="D7" s="7">
-        <v>155650</v>
+        <v>148652</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3879,37 +3891,37 @@
         <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>201</v>
       </c>
       <c r="I7" s="7">
-        <v>154521</v>
+        <v>166222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>353</v>
       </c>
       <c r="N7" s="7">
-        <v>310171</v>
+        <v>314874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3933,46 @@
         <v>87</v>
       </c>
       <c r="D8" s="7">
-        <v>93700</v>
+        <v>90928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>106</v>
       </c>
       <c r="I8" s="7">
-        <v>79440</v>
+        <v>72146</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>193</v>
       </c>
       <c r="N8" s="7">
-        <v>173140</v>
+        <v>163074</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3984,7 @@
         <v>239</v>
       </c>
       <c r="D9" s="7">
-        <v>249350</v>
+        <v>239580</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3999,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4014,7 @@
         <v>546</v>
       </c>
       <c r="N9" s="7">
-        <v>483311</v>
+        <v>477948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4037,46 @@
         <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>37608</v>
+        <v>36561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>50135</v>
+        <v>46314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>87743</v>
+        <v>82876</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,43 +4088,43 @@
         <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>34209</v>
+        <v>32965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>47961</v>
+        <v>44381</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>82170</v>
+        <v>77345</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>104</v>
@@ -4127,7 +4139,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4154,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="7">
-        <v>98096</v>
+        <v>90695</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4169,7 @@
         <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>169913</v>
+        <v>160221</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4192,46 @@
         <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>216434</v>
+        <v>207589</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>295</v>
       </c>
       <c r="I13" s="7">
-        <v>226516</v>
+        <v>231260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>505</v>
       </c>
       <c r="N13" s="7">
-        <v>442950</v>
+        <v>438849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4243,46 @@
         <v>127</v>
       </c>
       <c r="D14" s="7">
-        <v>135212</v>
+        <v>130731</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>134536</v>
+        <v>122789</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>305</v>
       </c>
       <c r="N14" s="7">
-        <v>269748</v>
+        <v>253520</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4294,7 @@
         <v>337</v>
       </c>
       <c r="D15" s="7">
-        <v>351646</v>
+        <v>338320</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4309,7 @@
         <v>473</v>
       </c>
       <c r="I15" s="7">
-        <v>361052</v>
+        <v>354049</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4324,7 @@
         <v>810</v>
       </c>
       <c r="N15" s="7">
-        <v>712698</v>
+        <v>692369</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
